--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -540,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -666,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -682,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,7 +690,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -714,7 +714,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -722,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -730,7 +730,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -778,7 +778,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -842,7 +842,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -858,7 +858,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -882,7 +882,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -890,7 +890,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -898,7 +898,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">

--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -850,7 +850,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -930,7 +930,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">

--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -834,7 +834,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -858,7 +858,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
